--- a/9班_出席_画面項目定義.xlsx
+++ b/9班_出席_画面項目定義.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\NIAMS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5434B87-6B59-48C5-8B4B-D4BF4AEEDA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B268E3EB-2BE4-4B94-BB5C-4E9B9084D5E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="5" activeTab="5" xr2:uid="{B3F55351-78B0-4A16-9E75-1F78FDABEBF8}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="3" activeTab="4" xr2:uid="{B3F55351-78B0-4A16-9E75-1F78FDABEBF8}"/>
   </bookViews>
   <sheets>
     <sheet name="ログイン画面" sheetId="1" r:id="rId1"/>
@@ -640,12 +640,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -657,6 +651,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -994,8 +994,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45DF002C-AEA6-48B4-9446-F8F6721C34F2}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1013,177 +1013,177 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1200,7 +1200,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B57FD1C7-5608-4D47-A75E-687D5EA9B466}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1218,189 +1218,189 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1417,7 +1417,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C509679-926D-4284-BF67-C0E2EA45EA46}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
@@ -1437,287 +1437,287 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="7" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5" t="s">
+      <c r="F14" s="3"/>
+      <c r="G14" s="3" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="7" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>10</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="7" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>11</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>12</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>13</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>14</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>15</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1734,8 +1734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76EC659B-E439-47B0-B17B-B7CBB37BA245}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView topLeftCell="C18" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection sqref="A1:G21"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1751,271 +1751,271 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="7" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5">
+      <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="7" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>10</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>11</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>12</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>13</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>14</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>15</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2032,8 +2032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7890127C-7078-4163-950C-67BBB3F532C8}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2051,269 +2051,269 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5">
+      <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5">
+      <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="7" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5">
+    <row r="14" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="7" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="5" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>10</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>11</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>12</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>13</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>14</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>15</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2330,7 +2330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F05EE7B-5011-4C30-A380-E544534F4E32}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+    <sheetView topLeftCell="B12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -2348,277 +2348,277 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="5"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5">
+      <c r="A7" s="3">
         <v>1</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5">
+      <c r="A8" s="3">
         <v>2</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5">
+      <c r="A9" s="3">
         <v>3</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5">
+      <c r="A10" s="3">
         <v>4</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5">
+      <c r="A11" s="3">
         <v>5</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="126" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5">
+    <row r="12" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3">
         <v>6</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="126" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5">
+    <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3">
         <v>7</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="7" t="s">
+      <c r="F13" s="3"/>
+      <c r="G13" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="108" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5">
+    <row r="14" spans="1:7" ht="54" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="3">
         <v>8</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="7" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5">
+      <c r="A15" s="3">
         <v>9</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="7" t="s">
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="5">
+      <c r="A16" s="3">
         <v>10</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5">
+      <c r="A17" s="3">
         <v>11</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="5">
+      <c r="A18" s="3">
         <v>12</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="5">
+      <c r="A19" s="3">
         <v>13</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="5">
+      <c r="A20" s="3">
         <v>14</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="5">
+      <c r="A21" s="3">
         <v>15</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
